--- a/INTLINE/data/924/NBS/Value-added by industries.xlsx
+++ b/INTLINE/data/924/NBS/Value-added by industries.xlsx
@@ -1,37 +1,297 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Gross Domestic Product(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Agriculture, Forestry, Animal Husbandry and Fishery industries(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Industry(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Construction(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Wholesale and Retail Trades(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Transport, Storage and Post(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Hotels and Catering Services(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Financial Intermediation(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Real Estate(100 million yuan)</t>
+  </si>
+  <si>
+    <t>Value-added of Others(100 million yuan)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +306,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +325,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2592 +622,2388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Indicators</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>1949</t>
-        </is>
+    <row r="1" spans="1:74">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Gross Domestic Product(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:74">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
         <v>1143669.7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1013567</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>986515.2</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>919281.1</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>832035.9</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>746395.1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>688858.2</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>643563.1</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>592963.2</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>538580</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>487940.2</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>412119.3</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>348517.7</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>319244.6</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>270092.3</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>219438.5</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>187318.9</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>161840.2</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>137422</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>121717.4</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>110863.1</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>100280.1</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>90564.39999999999</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>85195.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>79715</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>71813.60000000001</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>61339.9</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>48637.5</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>35673.2</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>27194.5</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>22005.6</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>18872.9</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>17179.7</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>15180.4</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>12174.6</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>10376.2</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>9098.9</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>7278.5</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>6020.9</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>5373.4</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>4935.8</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>4587.6</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>4100.5</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>3678.7</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>3250</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>2988.6</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>3039.5</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>2827.7</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>2756.2</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>2552.4</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>2456.9</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>2279.7</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>1962.2</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>1744.1</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>1794.2</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>1888.7</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>1734</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>1469.9</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>1248.3</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>1162.2</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>1232.3</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>1470.1</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>1447.5</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>1312.3</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>1071.4</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>1030.7</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>911.6</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>859.8</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>824.4</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>679.1</v>
       </c>
-      <c r="BT2" t="inlineStr"/>
-      <c r="BU2" t="inlineStr"/>
-      <c r="BV2" t="inlineStr"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Agriculture, Forestry, Animal Husbandry and Fishery industries(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:74">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
         <v>86775</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>81396.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>73576.89999999999</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>67558.7</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>64660</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>62451</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>59852.6</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>57472.2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>54692.4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>50581.2</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>46122.6</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>39619</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>34659.7</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>33428.1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>28483.7</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>24036.4</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>22416.2</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>21410.7</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>17380.6</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>16535.7</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>15780</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>14943.6</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>14768.7</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>14816.4</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>14440.8</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>14014.7</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>12135.1</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>9572.1</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>6963.3</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>5866.2</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>5341.9</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>5061.8</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>4265.8</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>3865.2</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>3232.9</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>2788.6</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>2564.3</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>2316</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>1978.3</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>1777.3</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>1559.4</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>1371.6</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>1270.2</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>1027.5</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>950.5</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>975.6</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>979.8</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>953.6</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>915.6</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>834.8</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>833.7</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>800.4</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>742.8</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>732.8</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>720.6</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>708.5</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>656.9</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>564</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>501.9</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>457.1</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>445</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>343.8</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>387.2</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>449.9</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>433.8</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>447.8</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>424.7</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>395.5</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>381.4</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>345.9</v>
       </c>
-      <c r="BT3" t="inlineStr"/>
-      <c r="BU3" t="inlineStr"/>
-      <c r="BV3" t="inlineStr"/>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Industry(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:74">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
         <v>372575.3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>312902.9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>311858.7</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>301089.3</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>275119.3</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>245406.4</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>234968.9</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>233197.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>222333.2</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>208901.4</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>195139.1</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>165123.1</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>138092.6</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>131724</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>111690.8</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>92235.8</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>77958.3</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>65774.89999999999</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>55362.2</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>47774.9</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>43854.3</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>40258.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>36014.4</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>34133.9</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>33022.6</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>29528.9</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>25023.2</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>19546.3</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>14248.4</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>10340.2</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>8137.9</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>6904.5</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>6525.5</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>5814</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>4621.1</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>4000.7</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>3478.2</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>2815.8</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>2399</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>2183</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>2067.7</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>2014.8</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>1786.5</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>1621.4</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>1384.9</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>1216.7</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>1256.6</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>1094.4</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>1082.8</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>1000</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>936.3</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>836.3</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>633.7</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>496.9</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>551.6</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>656.3</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>554.2</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>468.1</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>371.7</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>330.9</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>367.7</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>574.1</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>541.3</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>415.9</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>271.6</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>225.2</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>191.2</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>184.5</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>163.2</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>119.5</v>
       </c>
-      <c r="BT4" t="inlineStr"/>
-      <c r="BU4" t="inlineStr"/>
-      <c r="BV4" t="inlineStr"/>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Construction(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:74">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
         <v>80138.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>72444.7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>70648.10000000001</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>65493</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>57905.6</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>51498.9</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>47761.3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>45401.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>40896.8</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>36896.1</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>32926.5</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>27259.3</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>22681.5</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>18807.6</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>15348</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>12450.1</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>10400.5</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>8720.5</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>7510.8</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>6482.1</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>5945.5</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>5534</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>5180.9</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>4993</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>4628.3</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>4393</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>3733.7</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>2968.8</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>2269.9</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>1417.9</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>1017.7</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>861.7</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>796.1</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>811.8</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>667.5</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>527.3</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>419.3</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>317.9</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>271.7</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>221.6</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>208</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>196.3</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>144.6</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>138.9</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>137.3</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>133.1</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>126.1</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>108.9</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>101</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>94.8</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>96.59999999999999</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>84.5</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>63.3</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>47.3</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>58.2</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>61.2</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>56</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>52.7</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>42.3</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>34.1</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>27</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>80.3</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>77.2</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>69.09999999999999</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>46</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>56</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>31</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>27</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>29</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>22</v>
       </c>
-      <c r="BT5" t="inlineStr"/>
-      <c r="BU5" t="inlineStr"/>
-      <c r="BV5" t="inlineStr"/>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Wholesale and Retail Trades(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:74">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
         <v>110492.7</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>96086.10000000001</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>95650.89999999999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>88903.7</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>81156.60000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>73724.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>67719.60000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>63170.4</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>56288.9</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>49835.5</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>43734.5</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>35907.9</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>29004.6</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>26186.2</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>20941.1</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>16533.4</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>13968.5</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>12455.8</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>11171.2</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>9996.799999999999</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>9120.799999999999</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>8159.8</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>7492.2</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>6914.3</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>6328.4</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>5600.5</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>4779.4</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>3774</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>2817</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>2405.4</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>1834.8</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>1269.2</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>1536.4</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>1483.6</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>1059.7</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>852.7</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>802.5</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>363.6</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>198.7</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>171.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>231.2</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>193.8</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>200.9</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>242.4</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>195.2</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>134.4</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>160.2</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>188.2</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>192</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>176.7</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>162.5</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>162.9</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>149</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>126.1</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>138.6</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>132.1</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>104.6</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>81.8</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>64.5</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>67.59999999999999</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>96.5</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>120.3</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>129.3</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>121</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>116.2</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>115.3</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>104.9</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>106.6</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>102.4</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>70.09999999999999</v>
       </c>
-      <c r="BT6" t="inlineStr"/>
-      <c r="BU6" t="inlineStr"/>
-      <c r="BV6" t="inlineStr"/>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Transport, Storage and Post(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:74">
+      <c r="A7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
         <v>47061.2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>40582.9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>42466.3</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>40337.2</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>37121.9</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>33028.7</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>30519.5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>28534.4</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>26042.7</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>23763.2</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>21842</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>18783.6</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>16522.4</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>16367.6</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>14605.1</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>12186.3</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>10668.8</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>9306.5</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>7914.8</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>7494.3</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>6871.3</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>6161.9</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>5175.9</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>4661.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>4149.1</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>3782.6</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>3244.7</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>2788.2</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>2174.3</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>1689.2</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>1420.5</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>1167.2</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>812.9</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>685.9</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>568.5</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>499</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>421.8</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>338.6</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>275</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>246.9</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>220.8</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>213.4</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>193.7</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>182</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>165.2</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>147.1</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>148.4</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>132.2</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>131</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>123</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>108.4</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>100.2</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>84.90000000000001</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>70.5</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>72.3</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>85.09999999999999</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>77.40000000000001</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>58.4</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>55</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>57.4</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>69.2</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>104</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>94</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>71</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>49</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>46</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>39</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>38</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>35</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>29</v>
       </c>
-      <c r="BT7" t="inlineStr"/>
-      <c r="BU7" t="inlineStr"/>
-      <c r="BV7" t="inlineStr"/>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Hotels and Catering Services(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:74">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
         <v>17852.6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>15285.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>17903.1</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>16520.6</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>15056</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>13607.8</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8">
         <v>12306.1</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I8">
         <v>11228.7</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>10228.3</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K8">
         <v>9536.9</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8">
         <v>8565.4</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8">
         <v>7712</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N8">
         <v>6957</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>6616.1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="P8">
         <v>5548.1</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="Q8">
         <v>4792.6</v>
       </c>
-      <c r="R8" t="n">
+      <c r="R8">
         <v>4195.7</v>
       </c>
-      <c r="S8" t="n">
+      <c r="S8">
         <v>3664.8</v>
       </c>
-      <c r="T8" t="n">
+      <c r="T8">
         <v>3126.1</v>
       </c>
-      <c r="U8" t="n">
+      <c r="U8">
         <v>2724.8</v>
       </c>
-      <c r="V8" t="n">
+      <c r="V8">
         <v>2400.1</v>
       </c>
-      <c r="W8" t="n">
+      <c r="W8">
         <v>2146.3</v>
       </c>
-      <c r="X8" t="n">
+      <c r="X8">
         <v>1941.2</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Y8">
         <v>1786.9</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="Z8">
         <v>1561.3</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AA8">
         <v>1336.8</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AB8">
         <v>1200.1</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AC8">
         <v>1008.5</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AD8">
         <v>712.1</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AE8">
         <v>584.6</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AF8">
         <v>442.3</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AG8">
         <v>301.9</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AH8">
         <v>277.4</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AI8">
         <v>241.4</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AJ8">
         <v>187.1</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AK8">
         <v>163.2</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AL8">
         <v>138.3</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AM8">
         <v>96.8</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AN8">
         <v>72.5</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AO8">
         <v>62.3</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AP8">
         <v>54.1</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AQ8">
         <v>47.4</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AR8">
         <v>44</v>
       </c>
-      <c r="AS8" t="n">
+      <c r="AS8">
         <v>44.6</v>
       </c>
-      <c r="AT8" t="n">
+      <c r="AT8">
         <v>37.5</v>
       </c>
-      <c r="AU8" t="n">
+      <c r="AU8">
         <v>30</v>
       </c>
-      <c r="AV8" t="n">
+      <c r="AV8">
         <v>31.2</v>
       </c>
-      <c r="AW8" t="n">
+      <c r="AW8">
         <v>33.4</v>
       </c>
-      <c r="AX8" t="n">
+      <c r="AX8">
         <v>32.6</v>
       </c>
-      <c r="AY8" t="n">
+      <c r="AY8">
         <v>30.7</v>
       </c>
-      <c r="AZ8" t="n">
+      <c r="AZ8">
         <v>28.2</v>
       </c>
-      <c r="BA8" t="n">
+      <c r="BA8">
         <v>26.9</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BB8">
         <v>26.3</v>
       </c>
-      <c r="BC8" t="n">
+      <c r="BC8">
         <v>23.8</v>
       </c>
-      <c r="BD8" t="n">
+      <c r="BD8">
         <v>25.6</v>
       </c>
-      <c r="BE8" t="n">
+      <c r="BE8">
         <v>26.4</v>
       </c>
-      <c r="BF8" t="n">
+      <c r="BF8">
         <v>23.7</v>
       </c>
-      <c r="BG8" t="n">
+      <c r="BG8">
         <v>21.7</v>
       </c>
-      <c r="BH8" t="n">
+      <c r="BH8">
         <v>20.7</v>
       </c>
-      <c r="BI8" t="n">
+      <c r="BI8">
         <v>21.4</v>
       </c>
-      <c r="BJ8" t="n">
+      <c r="BJ8">
         <v>23.1</v>
       </c>
-      <c r="BK8" t="n">
+      <c r="BK8">
         <v>27.7</v>
       </c>
-      <c r="BL8" t="n">
+      <c r="BL8">
         <v>30</v>
       </c>
-      <c r="BM8" t="n">
+      <c r="BM8">
         <v>27</v>
       </c>
-      <c r="BN8" t="n">
+      <c r="BN8">
         <v>23.3</v>
       </c>
-      <c r="BO8" t="n">
+      <c r="BO8">
         <v>21.9</v>
       </c>
-      <c r="BP8" t="n">
+      <c r="BP8">
         <v>20.1</v>
       </c>
-      <c r="BQ8" t="n">
+      <c r="BQ8">
         <v>18.6</v>
       </c>
-      <c r="BR8" t="n">
+      <c r="BR8">
         <v>18</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BS8">
         <v>14.7</v>
       </c>
-      <c r="BT8" t="inlineStr"/>
-      <c r="BU8" t="inlineStr"/>
-      <c r="BV8" t="inlineStr"/>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Financial Intermediation(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:74">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
         <v>91205.60000000001</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>83617.7</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>76250.60000000001</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>70610.3</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>64844.3</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>59964</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9">
         <v>56299.8</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I9">
         <v>46853.4</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>41293.4</v>
       </c>
-      <c r="K9" t="n">
+      <c r="K9">
         <v>35272.2</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9">
         <v>30747.2</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9">
         <v>25733.1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N9">
         <v>21836.8</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>18345.6</v>
       </c>
-      <c r="P9" t="n">
+      <c r="P9">
         <v>15200</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9">
         <v>9972.299999999999</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9">
         <v>7486</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9">
         <v>6600.2</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T9">
         <v>6045.7</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U9">
         <v>5555.8</v>
       </c>
-      <c r="V9" t="n">
+      <c r="V9">
         <v>5202.8</v>
       </c>
-      <c r="W9" t="n">
+      <c r="W9">
         <v>4842.2</v>
       </c>
-      <c r="X9" t="n">
+      <c r="X9">
         <v>4489.7</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y9">
         <v>4318.2</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z9">
         <v>4179.2</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA9">
         <v>3700.7</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB9">
         <v>3211.5</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC9">
         <v>2557.9</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD9">
         <v>1903.5</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE9">
         <v>1482.1</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF9">
         <v>1195.2</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG9">
         <v>1144.1</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH9">
         <v>1079.9</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AI9">
         <v>658.9</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AJ9">
         <v>506.2</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK9">
         <v>401.2</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL9">
         <v>293.9</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM9">
         <v>230.6</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN9">
         <v>168.9</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO9">
         <v>130.6</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AP9">
         <v>91.7</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AQ9">
         <v>85.8</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AR9">
         <v>75.90000000000001</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AS9">
         <v>76.5</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AT9">
         <v>68.8</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AU9">
         <v>62.2</v>
       </c>
-      <c r="AV9" t="n">
+      <c r="AV9">
         <v>61.2</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9">
         <v>56.5</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AX9">
         <v>52.7</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AY9">
         <v>52.8</v>
       </c>
-      <c r="AZ9" t="n">
+      <c r="AZ9">
         <v>65.3</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BA9">
         <v>56.7</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BB9">
         <v>54</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BC9">
         <v>48.3</v>
       </c>
-      <c r="BD9" t="n">
+      <c r="BD9">
         <v>41.5</v>
       </c>
-      <c r="BE9" t="n">
+      <c r="BE9">
         <v>35.8</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BF9">
         <v>85.2</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BG9">
         <v>59.1</v>
       </c>
-      <c r="BH9" t="n">
+      <c r="BH9">
         <v>36.8</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BI9">
         <v>48.4</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BJ9">
         <v>61.2</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BK9">
         <v>61.6</v>
       </c>
-      <c r="BL9" t="n">
+      <c r="BL9">
         <v>38.1</v>
       </c>
-      <c r="BM9" t="n">
+      <c r="BM9">
         <v>24.2</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BN9">
         <v>16.1</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BO9">
         <v>14.1</v>
       </c>
-      <c r="BP9" t="n">
+      <c r="BP9">
         <v>13.8</v>
       </c>
-      <c r="BQ9" t="n">
+      <c r="BQ9">
         <v>11.8</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BR9">
         <v>11.9</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BS9">
         <v>11.7</v>
       </c>
-      <c r="BT9" t="inlineStr"/>
-      <c r="BU9" t="inlineStr"/>
-      <c r="BV9" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Real Estate(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:74">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
         <v>77560.8</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>73425.3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>70444.8</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>64623</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>57086</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>49969.4</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10">
         <v>42573.8</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I10">
         <v>38086.4</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>35340.4</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K10">
         <v>30751.9</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L10">
         <v>27780.7</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10">
         <v>23326.6</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N10">
         <v>18760.5</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>14600.3</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P10">
         <v>13714</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10">
         <v>10320.9</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10">
         <v>8482.700000000001</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10">
         <v>7152.1</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T10">
         <v>6157</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U10">
         <v>5334.5</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V10">
         <v>4705.8</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W10">
         <v>4140.9</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X10">
         <v>3674.5</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y10">
         <v>3427.7</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z10">
         <v>2914.5</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA10">
         <v>2611.9</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB10">
         <v>2349.4</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC10">
         <v>1905.6</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD10">
         <v>1376.9</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE10">
         <v>1099.1</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF10">
         <v>762.2</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG10">
         <v>660.9</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH10">
         <v>565.1</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI10">
         <v>472.8</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ10">
         <v>381.9</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK10">
         <v>297.5</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL10">
         <v>214.8</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM10">
         <v>162</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN10">
         <v>121.6</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO10">
         <v>110.6</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP10">
         <v>99.8</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ10">
         <v>96.2</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR10">
         <v>86.2</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS10">
         <v>79.7</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT10">
         <v>73.40000000000001</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU10">
         <v>69</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV10">
         <v>64.59999999999999</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW10">
         <v>58.7</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX10">
         <v>54.7</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY10">
         <v>55.1</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ10">
         <v>49.8</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA10">
         <v>47.5</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB10">
         <v>45.3</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC10">
         <v>41.7</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD10">
         <v>38.3</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BE10">
         <v>32.4</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BF10">
         <v>30.5</v>
       </c>
-      <c r="BG10" t="n">
+      <c r="BG10">
         <v>25</v>
       </c>
-      <c r="BH10" t="n">
+      <c r="BH10">
         <v>27</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BI10">
         <v>25.3</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BJ10">
         <v>23.6</v>
       </c>
-      <c r="BK10" t="n">
+      <c r="BK10">
         <v>20.9</v>
       </c>
-      <c r="BL10" t="n">
+      <c r="BL10">
         <v>21.6</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BM10">
         <v>17.9</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BN10">
         <v>18.6</v>
       </c>
-      <c r="BO10" t="n">
+      <c r="BO10">
         <v>17.2</v>
       </c>
-      <c r="BP10" t="n">
+      <c r="BP10">
         <v>17.9</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BQ10">
         <v>13.5</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BR10">
         <v>13.2</v>
       </c>
-      <c r="BS10" t="n">
+      <c r="BS10">
         <v>14</v>
       </c>
-      <c r="BT10" t="inlineStr"/>
-      <c r="BU10" t="inlineStr"/>
-      <c r="BV10" t="inlineStr"/>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Value-added of Others(100 million yuan)</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:74">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
         <v>260008</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>237825.3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>227715.8</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>204145.2</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>179086.3</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>156744.3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11">
         <v>136856.5</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I11">
         <v>119618.5</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>105847.3</v>
       </c>
-      <c r="K11" t="n">
+      <c r="K11">
         <v>93041.60000000001</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L11">
         <v>81082.2</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11">
         <v>68654.7</v>
       </c>
-      <c r="N11" t="n">
+      <c r="N11">
         <v>60002.6</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>53169.3</v>
       </c>
-      <c r="P11" t="n">
+      <c r="P11">
         <v>44561.5</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11">
         <v>36910.8</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11">
         <v>31742.1</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11">
         <v>26754.6</v>
       </c>
-      <c r="T11" t="n">
+      <c r="T11">
         <v>22753.8</v>
       </c>
-      <c r="U11" t="n">
+      <c r="U11">
         <v>19818.6</v>
       </c>
-      <c r="V11" t="n">
+      <c r="V11">
         <v>16982.6</v>
       </c>
-      <c r="W11" t="n">
+      <c r="W11">
         <v>14092.9</v>
       </c>
-      <c r="X11" t="n">
+      <c r="X11">
         <v>11827</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Y11">
         <v>10143.7</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="Z11">
         <v>8490.9</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AA11">
         <v>6844.5</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AB11">
         <v>5662.8</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AC11">
         <v>4516.1</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AD11">
         <v>3207.8</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AE11">
         <v>2309.8</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AF11">
         <v>1853.1</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AG11">
         <v>1501.7</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AH11">
         <v>1320.7</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AI11">
         <v>1146.8</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AJ11">
         <v>949.8</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AK11">
         <v>846.1</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AL11">
         <v>765.8</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AM11">
         <v>637.3</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AN11">
         <v>535.2</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AO11">
         <v>469.5</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AP11">
         <v>403.3</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AQ11">
         <v>368.2</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AR11">
         <v>298.5</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AS11">
         <v>265.6</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AT11">
         <v>237.1</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="AU11">
         <v>220.4</v>
       </c>
-      <c r="AV11" t="n">
+      <c r="AV11">
         <v>211.4</v>
       </c>
-      <c r="AW11" t="n">
+      <c r="AW11">
         <v>201.8</v>
       </c>
-      <c r="AX11" t="n">
+      <c r="AX11">
         <v>193.7</v>
       </c>
-      <c r="AY11" t="n">
+      <c r="AY11">
         <v>184.6</v>
       </c>
-      <c r="AZ11" t="n">
+      <c r="AZ11">
         <v>176.1</v>
       </c>
-      <c r="BA11" t="n">
+      <c r="BA11">
         <v>164.3</v>
       </c>
-      <c r="BB11" t="n">
+      <c r="BB11">
         <v>163</v>
       </c>
-      <c r="BC11" t="n">
+      <c r="BC11">
         <v>156.8</v>
       </c>
-      <c r="BD11" t="n">
+      <c r="BD11">
         <v>147.6</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BE11">
         <v>150.8</v>
       </c>
-      <c r="BF11" t="n">
+      <c r="BF11">
         <v>145.3</v>
       </c>
-      <c r="BG11" t="n">
+      <c r="BG11">
         <v>139.2</v>
       </c>
-      <c r="BH11" t="n">
+      <c r="BH11">
         <v>128.4</v>
       </c>
-      <c r="BI11" t="n">
+      <c r="BI11">
         <v>120</v>
       </c>
-      <c r="BJ11" t="n">
+      <c r="BJ11">
         <v>118.9</v>
       </c>
-      <c r="BK11" t="n">
+      <c r="BK11">
         <v>137.4</v>
       </c>
-      <c r="BL11" t="n">
+      <c r="BL11">
         <v>128.7</v>
       </c>
-      <c r="BM11" t="n">
+      <c r="BM11">
         <v>116.4</v>
       </c>
-      <c r="BN11" t="n">
+      <c r="BN11">
         <v>96.7</v>
       </c>
-      <c r="BO11" t="n">
+      <c r="BO11">
         <v>87.2</v>
       </c>
-      <c r="BP11" t="n">
+      <c r="BP11">
         <v>68.90000000000001</v>
       </c>
-      <c r="BQ11" t="n">
+      <c r="BQ11">
         <v>64.40000000000001</v>
       </c>
-      <c r="BR11" t="n">
+      <c r="BR11">
         <v>70.3</v>
       </c>
-      <c r="BS11" t="n">
+      <c r="BS11">
         <v>52.1</v>
       </c>
-      <c r="BT11" t="inlineStr"/>
-      <c r="BU11" t="inlineStr"/>
-      <c r="BV11" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>